--- a/Beginner/Slides/Lec_0.xlsx
+++ b/Beginner/Slides/Lec_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2494D113-F52A-4A47-BF5B-0BC1BA1638D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6D17F5-F993-8B43-9E37-A4AA961F1737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -3102,7 +3102,7 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3578,7 +3578,7 @@
   </sheetPr>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
